--- a/graphics.xlsx
+++ b/graphics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="в середине" sheetId="1" r:id="rId1"/>
-    <sheet name="в начале" sheetId="2" r:id="rId2"/>
+    <sheet name="в начале" sheetId="2" r:id="rId1"/>
+    <sheet name="в середине" sheetId="1" r:id="rId2"/>
     <sheet name="в конце" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="8">
   <si>
     <t>Размер массива</t>
   </si>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -196,12 +196,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -226,7 +229,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'в середине'!$C$1</c:f>
+              <c:f>'в начале'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -238,7 +241,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'в середине'!$A$2:$B$45</c:f>
+              <c:f>'в начале'!$A$2:$B$45</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="44"/>
                 <c:lvl>
@@ -415,138 +418,138 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'в середине'!$C$2:$C$45</c:f>
+              <c:f>'в начале'!$C$2:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>6300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5000</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5000</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19300</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14600</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17500</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30500</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26500</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23400</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33000</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32600</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>52600</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42400</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42500</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>63900</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>56700</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>51000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>76600</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>60600</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>86100</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>88800</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>70700</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>70700</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>99900</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>84600</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>78600</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>112100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>89300</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>117700</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>126000</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>108200</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>156100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>200</c:v>
@@ -554,13 +557,18 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D96-4F83-8F35-B3BD6334C4D8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'в середине'!$D$1</c:f>
+              <c:f>'в начале'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -572,7 +580,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'в середине'!$A$2:$B$45</c:f>
+              <c:f>'в начале'!$A$2:$B$45</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="44"/>
                 <c:lvl>
@@ -749,138 +757,138 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'в середине'!$D$2:$D$45</c:f>
+              <c:f>'в начале'!$D$2:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>5001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5002</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5002</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14501</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14502</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14502</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24002</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24002</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33501</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33502</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33502</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43002</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43002</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>52501</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>52502</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52502</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>62001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>62002</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>62002</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>71501</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>71502</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>71502</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>81001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>81002</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>81002</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>90501</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>90502</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>90502</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>100001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>100002</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>100002</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>50</c:v>
@@ -888,6 +896,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1D96-4F83-8F35-B3BD6334C4D8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -939,6 +952,7 @@
           </c:layout>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -949,7 +963,1679 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="185985856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="185985856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400"/>
+                  <a:t>Время</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+                  <a:t> в наносекундах</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.4844588430491663E-3"/>
+              <c:y val="0.33242944578226524"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171043840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'в середине'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время выполнения</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'в середине'!$A$2:$B$45</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="44"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>29000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>48000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>67000</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>86000</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>105000</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>124000</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>143000</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>162000</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>181000</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>200000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'в середине'!$C$2:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>63900</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56700</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>76600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>86100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>88800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>70700</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70700</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>99900</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>84600</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>78600</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>112100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>89300</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>117700</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>126000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>108200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>156100</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-094C-4ABA-8C40-4DFE3A762C05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'в середине'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Кол-во сравнений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'в середине'!$A$2:$B$45</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="44"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>29000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>48000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>67000</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>86000</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>105000</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>124000</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>143000</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>162000</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>181000</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>200000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'в середине'!$D$2:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>5001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14502</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33502</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>52501</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52502</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52502</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>62002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>71501</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>71502</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>71502</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>81001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>81002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>81002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90501</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>90502</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>90502</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>100001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>100002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>100002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-094C-4ABA-8C40-4DFE3A762C05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="300"/>
+        <c:axId val="171043840"/>
+        <c:axId val="185985856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="171043840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400"/>
+                  <a:t>Размер</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+                  <a:t> массива</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43942456554068376"/>
+              <c:y val="0.91373081434121883"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="185985856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="185985856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400"/>
+                  <a:t>Время</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+                  <a:t> в наносекундах</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.4844588430491663E-3"/>
+              <c:y val="0.33242944578226524"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171043840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'в конце'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время выполнения</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'в конце'!$A$2:$B$45</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="44"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>29000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>48000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>67000</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>86000</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>105000</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>124000</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>143000</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>162000</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>181000</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>200000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'в конце'!$C$2:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>34700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>121800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>103800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>153900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>134100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>143900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>208200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>176900</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>166400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>258400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>283900</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>196500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>270700</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>236000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>226200</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>314100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>276900</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>258200</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>427600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>292600</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>284900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>388800</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>327100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>316700</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E4CF-44BD-A607-9038C892D008}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'в конце'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Кол-во сравнений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'в конце'!$A$2:$B$45</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="44"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>29000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>48000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>67000</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>86000</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>105000</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>124000</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>143000</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>162000</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>181000</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>200000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'в конце'!$D$2:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>86000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>86001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>105001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>124000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>124001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>124001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>143000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>143001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>143001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>162000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>162001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>162001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>181000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>181001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>181001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>200001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>200001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E4CF-44BD-A607-9038C892D008}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="300"/>
+        <c:axId val="171043840"/>
+        <c:axId val="185985856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="171043840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400"/>
+                  <a:t>Размер</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+                  <a:t> массива</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43942456554068376"/>
+              <c:y val="0.91373081434121883"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="185985856"/>
@@ -1030,6 +2716,43 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>139214</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>122653</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>98911</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>75467</xdr:rowOff>
@@ -1044,6 +2767,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>139214</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>122653</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1103,7 +2863,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1138,7 +2898,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1349,18 +3109,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="A1:D45"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1374,557 +3135,557 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>10000</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
-        <v>6300</v>
+      <c r="C2" s="4">
+        <v>200</v>
       </c>
       <c r="D2" s="4">
-        <v>5001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
-        <v>5000</v>
+      <c r="C3" s="4">
+        <v>100</v>
       </c>
       <c r="D3" s="4">
-        <v>5002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3">
-        <v>5000</v>
+      <c r="C4" s="4">
+        <v>200</v>
       </c>
       <c r="D4" s="4">
-        <v>5002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3">
-        <v>300</v>
+      <c r="C5" s="4">
+        <v>200</v>
       </c>
       <c r="D5" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>29000</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3">
-        <v>19300</v>
+      <c r="C6" s="4">
+        <v>100</v>
       </c>
       <c r="D6" s="4">
-        <v>14501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
-        <v>14600</v>
+      <c r="C7" s="4">
+        <v>100</v>
       </c>
       <c r="D7" s="4">
-        <v>14502</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3">
-        <v>17500</v>
+      <c r="C8" s="4">
+        <v>200</v>
       </c>
       <c r="D8" s="4">
-        <v>14502</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>200</v>
       </c>
       <c r="D9" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>48000</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="3">
-        <v>30500</v>
+      <c r="C10" s="4">
+        <v>100</v>
       </c>
       <c r="D10" s="4">
-        <v>24001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3">
-        <v>26500</v>
+      <c r="C11" s="4">
+        <v>200</v>
       </c>
       <c r="D11" s="4">
-        <v>24002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3">
-        <v>23400</v>
+      <c r="C12" s="4">
+        <v>100</v>
       </c>
       <c r="D12" s="4">
-        <v>24002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>200</v>
       </c>
       <c r="D13" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>67000</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3">
-        <v>41100</v>
+      <c r="C14" s="4">
+        <v>100</v>
       </c>
       <c r="D14" s="4">
-        <v>33501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3">
-        <v>33000</v>
+      <c r="C15" s="4">
+        <v>100</v>
       </c>
       <c r="D15" s="4">
-        <v>33502</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="3">
-        <v>32600</v>
+      <c r="C16" s="4">
+        <v>100</v>
       </c>
       <c r="D16" s="4">
-        <v>33502</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>200</v>
       </c>
       <c r="D17" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>86000</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="3">
-        <v>52600</v>
+      <c r="C18" s="4">
+        <v>100</v>
       </c>
       <c r="D18" s="4">
-        <v>43001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="3">
-        <v>42400</v>
+      <c r="C19" s="4">
+        <v>300</v>
       </c>
       <c r="D19" s="4">
-        <v>43002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="3">
-        <v>42500</v>
+      <c r="C20" s="4">
+        <v>100</v>
       </c>
       <c r="D20" s="4">
-        <v>43002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="3">
-        <v>300</v>
+      <c r="C21" s="4">
+        <v>200</v>
       </c>
       <c r="D21" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>105000</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="3">
-        <v>63900</v>
+      <c r="C22" s="4">
+        <v>100</v>
       </c>
       <c r="D22" s="4">
-        <v>52501</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="3">
-        <v>56700</v>
+      <c r="C23" s="4">
+        <v>100</v>
       </c>
       <c r="D23" s="4">
-        <v>52502</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="3">
-        <v>51000</v>
+      <c r="C24" s="4">
+        <v>200</v>
       </c>
       <c r="D24" s="4">
-        <v>52502</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="3">
-        <v>400</v>
+      <c r="C25" s="4">
+        <v>200</v>
       </c>
       <c r="D25" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>124000</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="3">
-        <v>76600</v>
-      </c>
-      <c r="D26" s="5">
-        <v>62001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="4">
+        <v>200</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="3">
-        <v>60600</v>
-      </c>
-      <c r="D27" s="5">
-        <v>62002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="4">
+        <v>100</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="3">
-        <v>86100</v>
-      </c>
-      <c r="D28" s="5">
-        <v>62002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="4">
+        <v>200</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="3">
-        <v>700</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="C29" s="4">
+        <v>200</v>
+      </c>
+      <c r="D29" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>143000</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="3">
-        <v>88800</v>
-      </c>
-      <c r="D30" s="5">
-        <v>71501</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="4">
+        <v>100</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="3">
-        <v>70700</v>
-      </c>
-      <c r="D31" s="5">
-        <v>71502</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="4">
+        <v>300</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
       <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="3">
-        <v>70700</v>
-      </c>
-      <c r="D32" s="5">
-        <v>71502</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="4">
+        <v>200</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="3">
-        <v>200</v>
-      </c>
-      <c r="D33" s="5">
+      <c r="C33" s="4">
+        <v>300</v>
+      </c>
+      <c r="D33" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>162000</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="3">
-        <v>99900</v>
-      </c>
-      <c r="D34" s="5">
-        <v>81001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="4">
+        <v>100</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="3">
-        <v>84600</v>
-      </c>
-      <c r="D35" s="5">
-        <v>81002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="4">
+        <v>100</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
       <c r="B36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="3">
-        <v>78600</v>
-      </c>
-      <c r="D36" s="5">
-        <v>81002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="4">
+        <v>200</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="B37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="4">
         <v>200</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>181000</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="3">
-        <v>112100</v>
-      </c>
-      <c r="D38" s="5">
-        <v>90501</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="4">
+        <v>200</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
       <c r="B39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="3">
-        <v>89300</v>
-      </c>
-      <c r="D39" s="5">
-        <v>90502</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="4">
+        <v>300</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7"/>
       <c r="B40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="3">
-        <v>117700</v>
-      </c>
-      <c r="D40" s="5">
-        <v>90502</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="4">
+        <v>100</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
       <c r="B41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="3">
-        <v>300</v>
-      </c>
-      <c r="D41" s="5">
+      <c r="C41" s="4">
+        <v>200</v>
+      </c>
+      <c r="D41" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>200000</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="3">
-        <v>126000</v>
-      </c>
-      <c r="D42" s="5">
-        <v>100001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="4">
+        <v>500</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7"/>
       <c r="B43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="3">
-        <v>108200</v>
-      </c>
-      <c r="D43" s="5">
-        <v>100002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="4">
+        <v>200</v>
+      </c>
+      <c r="D43" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
       <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="3">
-        <v>156100</v>
-      </c>
-      <c r="D44" s="5">
-        <v>100002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="4">
+        <v>100</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
       <c r="B45" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="4">
         <v>200</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A26:A29"/>
@@ -1940,31 +3701,1206 @@
     <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F44:F45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>10000</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6300</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>300</v>
+      </c>
+      <c r="D5" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>29000</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>19300</v>
+      </c>
+      <c r="D6" s="4">
+        <v>14501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>14600</v>
+      </c>
+      <c r="D7" s="4">
+        <v>14502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>17500</v>
+      </c>
+      <c r="D8" s="4">
+        <v>14502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>200</v>
+      </c>
+      <c r="D9" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>48000</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>30500</v>
+      </c>
+      <c r="D10" s="4">
+        <v>24001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>26500</v>
+      </c>
+      <c r="D11" s="4">
+        <v>24002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>23400</v>
+      </c>
+      <c r="D12" s="4">
+        <v>24002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3">
+        <v>200</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>67000</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3">
+        <v>41100</v>
+      </c>
+      <c r="D14" s="4">
+        <v>33501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>33000</v>
+      </c>
+      <c r="D15" s="4">
+        <v>33502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
+        <v>32600</v>
+      </c>
+      <c r="D16" s="4">
+        <v>33502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3">
+        <v>200</v>
+      </c>
+      <c r="D17" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>86000</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>52600</v>
+      </c>
+      <c r="D18" s="4">
+        <v>43001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>42400</v>
+      </c>
+      <c r="D19" s="4">
+        <v>43002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>42500</v>
+      </c>
+      <c r="D20" s="4">
+        <v>43002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3">
+        <v>300</v>
+      </c>
+      <c r="D21" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>105000</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3">
+        <v>63900</v>
+      </c>
+      <c r="D22" s="4">
+        <v>52501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>56700</v>
+      </c>
+      <c r="D23" s="4">
+        <v>52502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3">
+        <v>51000</v>
+      </c>
+      <c r="D24" s="4">
+        <v>52502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3">
+        <v>400</v>
+      </c>
+      <c r="D25" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>124000</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>76600</v>
+      </c>
+      <c r="D26" s="5">
+        <v>62001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>60600</v>
+      </c>
+      <c r="D27" s="5">
+        <v>62002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3">
+        <v>86100</v>
+      </c>
+      <c r="D28" s="5">
+        <v>62002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3">
+        <v>700</v>
+      </c>
+      <c r="D29" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>143000</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3">
+        <v>88800</v>
+      </c>
+      <c r="D30" s="5">
+        <v>71501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7"/>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3">
+        <v>70700</v>
+      </c>
+      <c r="D31" s="5">
+        <v>71502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7"/>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3">
+        <v>70700</v>
+      </c>
+      <c r="D32" s="5">
+        <v>71502</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3">
+        <v>200</v>
+      </c>
+      <c r="D33" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
+        <v>162000</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3">
+        <v>99900</v>
+      </c>
+      <c r="D34" s="5">
+        <v>81001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7"/>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3">
+        <v>84600</v>
+      </c>
+      <c r="D35" s="5">
+        <v>81002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7"/>
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3">
+        <v>78600</v>
+      </c>
+      <c r="D36" s="5">
+        <v>81002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3">
+        <v>200</v>
+      </c>
+      <c r="D37" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="7">
+        <v>181000</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3">
+        <v>112100</v>
+      </c>
+      <c r="D38" s="5">
+        <v>90501</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3">
+        <v>89300</v>
+      </c>
+      <c r="D39" s="5">
+        <v>90502</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3">
+        <v>117700</v>
+      </c>
+      <c r="D40" s="5">
+        <v>90502</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+      <c r="B41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="3">
+        <v>300</v>
+      </c>
+      <c r="D41" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="7">
+        <v>200000</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="3">
+        <v>126000</v>
+      </c>
+      <c r="D42" s="5">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="7"/>
+      <c r="B43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="3">
+        <v>108200</v>
+      </c>
+      <c r="D43" s="5">
+        <v>100002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7"/>
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3">
+        <v>156100</v>
+      </c>
+      <c r="D44" s="5">
+        <v>100002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7"/>
+      <c r="B45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="3">
+        <v>200</v>
+      </c>
+      <c r="D45" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>10000</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>34700</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>15700</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>16000</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>200</v>
+      </c>
+      <c r="D5" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>29000</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>55900</v>
+      </c>
+      <c r="D6" s="4">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45800</v>
+      </c>
+      <c r="D7" s="4">
+        <v>29001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44500</v>
+      </c>
+      <c r="D8" s="4">
+        <v>29001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>200</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>48000</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>86100</v>
+      </c>
+      <c r="D10" s="4">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>73400</v>
+      </c>
+      <c r="D11" s="4">
+        <v>48001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>74100</v>
+      </c>
+      <c r="D12" s="4">
+        <v>48001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3">
+        <v>200</v>
+      </c>
+      <c r="D13" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>67000</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3">
+        <v>121800</v>
+      </c>
+      <c r="D14" s="4">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>102400</v>
+      </c>
+      <c r="D15" s="4">
+        <v>67001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
+        <v>103800</v>
+      </c>
+      <c r="D16" s="4">
+        <v>67001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3">
+        <v>300</v>
+      </c>
+      <c r="D17" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>86000</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>153900</v>
+      </c>
+      <c r="D18" s="4">
+        <v>86000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>134100</v>
+      </c>
+      <c r="D19" s="4">
+        <v>86001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>143900</v>
+      </c>
+      <c r="D20" s="4">
+        <v>86001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3">
+        <v>300</v>
+      </c>
+      <c r="D21" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>105000</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3">
+        <v>208200</v>
+      </c>
+      <c r="D22" s="4">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>176900</v>
+      </c>
+      <c r="D23" s="4">
+        <v>105001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3">
+        <v>166400</v>
+      </c>
+      <c r="D24" s="4">
+        <v>105001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3">
+        <v>200</v>
+      </c>
+      <c r="D25" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>124000</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>258400</v>
+      </c>
+      <c r="D26" s="4">
+        <v>124000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>283900</v>
+      </c>
+      <c r="D27" s="4">
+        <v>124001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3">
+        <v>196500</v>
+      </c>
+      <c r="D28" s="4">
+        <v>124001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3">
+        <v>300</v>
+      </c>
+      <c r="D29" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>143000</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3">
+        <v>270700</v>
+      </c>
+      <c r="D30" s="4">
+        <v>143000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7"/>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3">
+        <v>236000</v>
+      </c>
+      <c r="D31" s="4">
+        <v>143001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7"/>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3">
+        <v>226200</v>
+      </c>
+      <c r="D32" s="4">
+        <v>143001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3">
+        <v>200</v>
+      </c>
+      <c r="D33" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
+        <v>162000</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3">
+        <v>314100</v>
+      </c>
+      <c r="D34" s="4">
+        <v>162000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7"/>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3">
+        <v>276900</v>
+      </c>
+      <c r="D35" s="4">
+        <v>162001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7"/>
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3">
+        <v>258200</v>
+      </c>
+      <c r="D36" s="4">
+        <v>162001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3">
+        <v>200</v>
+      </c>
+      <c r="D37" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="7">
+        <v>181000</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3">
+        <v>427600</v>
+      </c>
+      <c r="D38" s="4">
+        <v>181000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3">
+        <v>292600</v>
+      </c>
+      <c r="D39" s="4">
+        <v>181001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3">
+        <v>284900</v>
+      </c>
+      <c r="D40" s="4">
+        <v>181001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+      <c r="B41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="3">
+        <v>400</v>
+      </c>
+      <c r="D41" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="7">
+        <v>200000</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="3">
+        <v>388800</v>
+      </c>
+      <c r="D42" s="4">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="7"/>
+      <c r="B43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="3">
+        <v>327100</v>
+      </c>
+      <c r="D43" s="4">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7"/>
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3">
+        <v>316700</v>
+      </c>
+      <c r="D44" s="4">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7"/>
+      <c r="B45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="3">
+        <v>300</v>
+      </c>
+      <c r="D45" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/graphics.xlsx
+++ b/graphics.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="в начале" sheetId="2" r:id="rId1"/>
     <sheet name="в середине" sheetId="1" r:id="rId2"/>
     <sheet name="в конце" sheetId="3" r:id="rId3"/>
+    <sheet name="Нет элемента" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="8">
   <si>
     <t>Размер массива</t>
   </si>
@@ -165,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -179,7 +180,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -383,34 +383,34 @@
                     <c:v>10000</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>29000</c:v>
+                    <c:v>2009000</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>48000</c:v>
+                    <c:v>4008000</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>67000</c:v>
+                    <c:v>6007000</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>86000</c:v>
+                    <c:v>8006000</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>105000</c:v>
+                    <c:v>10005000</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>124000</c:v>
+                    <c:v>12004000</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>143000</c:v>
+                    <c:v>14003000</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>162000</c:v>
+                    <c:v>16002000</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>181000</c:v>
+                    <c:v>18001000</c:v>
                   </c:pt>
                   <c:pt idx="40">
-                    <c:v>200000</c:v>
+                    <c:v>200000000</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -423,28 +423,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>100</c:v>
@@ -453,106 +453,106 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>200</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>200</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>100</c:v>
-                </c:pt>
                 <c:pt idx="19">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>100</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>100</c:v>
-                </c:pt>
                 <c:pt idx="29">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>200</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>300</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>200</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>200</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>100</c:v>
-                </c:pt>
                 <c:pt idx="43">
-                  <c:v>200</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -722,34 +722,34 @@
                     <c:v>10000</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>29000</c:v>
+                    <c:v>2009000</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>48000</c:v>
+                    <c:v>4008000</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>67000</c:v>
+                    <c:v>6007000</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>86000</c:v>
+                    <c:v>8006000</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>105000</c:v>
+                    <c:v>10005000</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>124000</c:v>
+                    <c:v>12004000</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>143000</c:v>
+                    <c:v>14003000</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>162000</c:v>
+                    <c:v>16002000</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>181000</c:v>
+                    <c:v>18001000</c:v>
                   </c:pt>
                   <c:pt idx="40">
-                    <c:v>200000</c:v>
+                    <c:v>200000000</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -762,7 +762,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -774,7 +774,7 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
@@ -783,10 +783,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2</c:v>
@@ -795,10 +795,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2</c:v>
@@ -807,10 +807,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -819,10 +819,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>47</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2</c:v>
@@ -831,10 +831,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>47</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2</c:v>
@@ -843,10 +843,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>47</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>2</c:v>
@@ -855,10 +855,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>2</c:v>
@@ -867,10 +867,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>50</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2</c:v>
@@ -879,10 +879,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>50</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>2</c:v>
@@ -891,7 +891,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>50</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1219,34 +1219,34 @@
                     <c:v>10000</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>29000</c:v>
+                    <c:v>2009000</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>48000</c:v>
+                    <c:v>4008000</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>67000</c:v>
+                    <c:v>6007000</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>86000</c:v>
+                    <c:v>8006000</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>105000</c:v>
+                    <c:v>10005000</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>124000</c:v>
+                    <c:v>12004000</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>143000</c:v>
+                    <c:v>14003000</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>162000</c:v>
+                    <c:v>16002000</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>181000</c:v>
+                    <c:v>18001000</c:v>
                   </c:pt>
                   <c:pt idx="40">
-                    <c:v>200000</c:v>
+                    <c:v>200000000</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1259,136 +1259,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>6300</c:v>
+                  <c:v>8900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5000</c:v>
+                  <c:v>7800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5000</c:v>
+                  <c:v>8600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19300</c:v>
+                  <c:v>2022800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14600</c:v>
+                  <c:v>1599100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17500</c:v>
+                  <c:v>1612500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30500</c:v>
+                  <c:v>3907100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26500</c:v>
+                  <c:v>3280600</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23400</c:v>
+                  <c:v>3293600</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>200</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41100</c:v>
+                  <c:v>6015600</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33000</c:v>
+                  <c:v>6286000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32600</c:v>
+                  <c:v>4967800</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>200</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>52600</c:v>
+                  <c:v>7784800</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42400</c:v>
+                  <c:v>6463300</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42500</c:v>
+                  <c:v>6576700</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>300</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>63900</c:v>
+                  <c:v>9518800</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>56700</c:v>
+                  <c:v>7883100</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>51000</c:v>
+                  <c:v>8056100</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>400</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>76600</c:v>
+                  <c:v>11647000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>60600</c:v>
+                  <c:v>9837900</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>86100</c:v>
+                  <c:v>9659800</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>700</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>88800</c:v>
+                  <c:v>13629300</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>70700</c:v>
+                  <c:v>11523600</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>70700</c:v>
+                  <c:v>11365000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>200</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>99900</c:v>
+                  <c:v>15262800</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>84600</c:v>
+                  <c:v>12736700</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>78600</c:v>
+                  <c:v>13170400</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>200</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>112100</c:v>
+                  <c:v>17269200</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>89300</c:v>
+                  <c:v>14414300</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>117700</c:v>
+                  <c:v>14514700</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>300</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>126000</c:v>
+                  <c:v>20067400</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>108200</c:v>
+                  <c:v>16233500</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>156100</c:v>
+                  <c:v>17148600</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>200</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1558,34 +1558,34 @@
                     <c:v>10000</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>29000</c:v>
+                    <c:v>2009000</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>48000</c:v>
+                    <c:v>4008000</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>67000</c:v>
+                    <c:v>6007000</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>86000</c:v>
+                    <c:v>8006000</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>105000</c:v>
+                    <c:v>10005000</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>124000</c:v>
+                    <c:v>12004000</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>143000</c:v>
+                    <c:v>14003000</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>162000</c:v>
+                    <c:v>16002000</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>181000</c:v>
+                    <c:v>18001000</c:v>
                   </c:pt>
                   <c:pt idx="40">
-                    <c:v>200000</c:v>
+                    <c:v>200000000</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1598,7 +1598,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>5001</c:v>
+                  <c:v>10002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5002</c:v>
@@ -1610,124 +1610,124 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14501</c:v>
+                  <c:v>2009002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14502</c:v>
+                  <c:v>1004502</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14502</c:v>
+                  <c:v>1004502</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24001</c:v>
+                  <c:v>4008002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24002</c:v>
+                  <c:v>2004002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24002</c:v>
+                  <c:v>2004002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33501</c:v>
+                  <c:v>6007002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33502</c:v>
+                  <c:v>3003502</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33502</c:v>
+                  <c:v>3003502</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43001</c:v>
+                  <c:v>8006002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43002</c:v>
+                  <c:v>4003002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43002</c:v>
+                  <c:v>4003002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>47</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>52501</c:v>
+                  <c:v>10005002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>52502</c:v>
+                  <c:v>5002502</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52502</c:v>
+                  <c:v>5002502</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>47</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>62001</c:v>
+                  <c:v>12004002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>62002</c:v>
+                  <c:v>6002002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>62002</c:v>
+                  <c:v>6002002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>47</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>71501</c:v>
+                  <c:v>14003002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>71502</c:v>
+                  <c:v>7001502</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>71502</c:v>
+                  <c:v>7001502</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>81001</c:v>
+                  <c:v>16002002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>81002</c:v>
+                  <c:v>8001002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>81002</c:v>
+                  <c:v>8001002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>50</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>90501</c:v>
+                  <c:v>18001002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>90502</c:v>
+                  <c:v>9000502</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>90502</c:v>
+                  <c:v>9000502</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>50</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>100001</c:v>
+                  <c:v>20000002</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>100002</c:v>
+                  <c:v>10000002</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>100002</c:v>
+                  <c:v>10000002</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>50</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2055,34 +2055,34 @@
                     <c:v>10000</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>29000</c:v>
+                    <c:v>2009000</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>48000</c:v>
+                    <c:v>4008000</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>67000</c:v>
+                    <c:v>6007000</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>86000</c:v>
+                    <c:v>8006000</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>105000</c:v>
+                    <c:v>10005000</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>124000</c:v>
+                    <c:v>12004000</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>143000</c:v>
+                    <c:v>14003000</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>162000</c:v>
+                    <c:v>16002000</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>181000</c:v>
+                    <c:v>18001000</c:v>
                   </c:pt>
                   <c:pt idx="40">
-                    <c:v>200000</c:v>
+                    <c:v>200000000</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2095,136 +2095,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>34700</c:v>
+                  <c:v>18900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15700</c:v>
+                  <c:v>16700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16000</c:v>
+                  <c:v>16600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55900</c:v>
+                  <c:v>3878300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45800</c:v>
+                  <c:v>3242500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44500</c:v>
+                  <c:v>3292700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>86100</c:v>
+                  <c:v>7822300</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>73400</c:v>
+                  <c:v>6482200</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>74100</c:v>
+                  <c:v>6681200</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>200</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>121800</c:v>
+                  <c:v>12043600</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>102400</c:v>
+                  <c:v>10028000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>103800</c:v>
+                  <c:v>10065300</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>300</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>153900</c:v>
+                  <c:v>15617800</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>134100</c:v>
+                  <c:v>13007000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>143900</c:v>
+                  <c:v>12854000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>300</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>208200</c:v>
+                  <c:v>19124300</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>176900</c:v>
+                  <c:v>15970200</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>166400</c:v>
+                  <c:v>16566600</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>200</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>258400</c:v>
+                  <c:v>23077100</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>283900</c:v>
+                  <c:v>20088000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>196500</c:v>
+                  <c:v>19743500</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>300</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>270700</c:v>
+                  <c:v>26969000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>236000</c:v>
+                  <c:v>22444500</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>226200</c:v>
+                  <c:v>22966900</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>200</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>314100</c:v>
+                  <c:v>30798800</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>276900</c:v>
+                  <c:v>28298600</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>258200</c:v>
+                  <c:v>26391400</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>200</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>427600</c:v>
+                  <c:v>34883800</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>292600</c:v>
+                  <c:v>29282600</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>284900</c:v>
+                  <c:v>29536400</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>400</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>388800</c:v>
+                  <c:v>39220700</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>327100</c:v>
+                  <c:v>32636800</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>316700</c:v>
+                  <c:v>36858200</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>300</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2394,34 +2394,34 @@
                     <c:v>10000</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>29000</c:v>
+                    <c:v>2009000</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>48000</c:v>
+                    <c:v>4008000</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>67000</c:v>
+                    <c:v>6007000</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>86000</c:v>
+                    <c:v>8006000</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>105000</c:v>
+                    <c:v>10005000</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>124000</c:v>
+                    <c:v>12004000</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>143000</c:v>
+                    <c:v>14003000</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>162000</c:v>
+                    <c:v>16002000</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>181000</c:v>
+                    <c:v>18001000</c:v>
                   </c:pt>
                   <c:pt idx="40">
-                    <c:v>200000</c:v>
+                    <c:v>200000000</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2434,7 +2434,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>10000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10001</c:v>
@@ -2446,124 +2446,124 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29000</c:v>
+                  <c:v>4018000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29001</c:v>
+                  <c:v>2009001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29001</c:v>
+                  <c:v>2009001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48000</c:v>
+                  <c:v>8016000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48001</c:v>
+                  <c:v>4008001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48001</c:v>
+                  <c:v>4008001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>67000</c:v>
+                  <c:v>12014000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>67001</c:v>
+                  <c:v>6007001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>67001</c:v>
+                  <c:v>6007001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>86000</c:v>
+                  <c:v>16012000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>86001</c:v>
+                  <c:v>8006001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>86001</c:v>
+                  <c:v>8006001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105000</c:v>
+                  <c:v>20010000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>105001</c:v>
+                  <c:v>10005001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>105001</c:v>
+                  <c:v>10005001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>124000</c:v>
+                  <c:v>24008000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>124001</c:v>
+                  <c:v>12004001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>124001</c:v>
+                  <c:v>12004001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>143000</c:v>
+                  <c:v>28006000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>143001</c:v>
+                  <c:v>14003001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>143001</c:v>
+                  <c:v>14003001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>53</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>162000</c:v>
+                  <c:v>32004000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>162001</c:v>
+                  <c:v>16002001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>162001</c:v>
+                  <c:v>16002001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>53</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>181000</c:v>
+                  <c:v>36002000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>181001</c:v>
+                  <c:v>18001001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>181001</c:v>
+                  <c:v>18001001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>53</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>200000</c:v>
+                  <c:v>40000000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>200001</c:v>
+                  <c:v>20000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>200001</c:v>
+                  <c:v>20000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>53</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2571,6 +2571,842 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E4CF-44BD-A607-9038C892D008}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="300"/>
+        <c:axId val="171043840"/>
+        <c:axId val="185985856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="171043840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400"/>
+                  <a:t>Размер</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+                  <a:t> массива</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43942456554068376"/>
+              <c:y val="0.91373081434121883"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="185985856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="185985856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400"/>
+                  <a:t>Время</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+                  <a:t> в наносекундах</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.4844588430491663E-3"/>
+              <c:y val="0.33242944578226524"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171043840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Нет элемента'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время выполнения</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Нет элемента'!$A$2:$B$45</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="44"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2009000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4008000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>6007000</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>8006000</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>10005000</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>12004000</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>14003000</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>16002000</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>18001000</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>200000000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Нет элемента'!$C$2:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>17800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3865700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3289400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11067000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6609700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11674500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9872200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15488700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12945600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19450600</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16238400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23385200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19896900</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28527700</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28154800</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31014500</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25910200</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>34845900</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29827900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43810300</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>32580800</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15F0-4ADC-B119-EDDD0DA7F05F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Нет элемента'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Кол-во сравнений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Нет элемента'!$A$2:$B$45</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="44"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>BLS</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>SLS</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>  T</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>  B</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2009000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4008000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>6007000</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>8006000</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>10005000</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>12004000</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>14003000</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>16002000</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>18001000</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>200000000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Нет элемента'!$D$2:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>20001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4018001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8016001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4008001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12014001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6007001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16012001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8006001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20010001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10005001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24008001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12004001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28006001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14003001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32004001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16002001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36002001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18001001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-15F0-4ADC-B119-EDDD0DA7F05F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2797,6 +3633,43 @@
       <xdr:colOff>139214</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>122653</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>261134</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>51896</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3109,8 +3982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3122,7 +3995,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3136,45 +4009,45 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>10000</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -3186,21 +4059,21 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>29000</v>
+      <c r="A6" s="6">
+        <v>2009000</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -3212,32 +4085,32 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="4">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="D9" s="4">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
-        <v>48000</v>
+      <c r="A10" s="6">
+        <v>4008000</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>4</v>
@@ -3246,11 +4119,11 @@
         <v>100</v>
       </c>
       <c r="D10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
@@ -3262,32 +4135,32 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="4">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="D13" s="4">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
-        <v>67000</v>
+      <c r="A14" s="6">
+        <v>6007000</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>4</v>
@@ -3296,48 +4169,48 @@
         <v>100</v>
       </c>
       <c r="D14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="4">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="D17" s="4">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
-        <v>86000</v>
+      <c r="A18" s="6">
+        <v>8006000</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>4</v>
@@ -3346,198 +4219,198 @@
         <v>100</v>
       </c>
       <c r="D18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="4">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D20" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="4">
-        <v>200</v>
+        <v>1300</v>
       </c>
       <c r="D21" s="4">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
-        <v>105000</v>
+      <c r="A22" s="6">
+        <v>10005000</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="4">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="D24" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="4">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="D25" s="4">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
-        <v>124000</v>
+      <c r="A26" s="6">
+        <v>12004000</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D26" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="4">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D27" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D28" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="4">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="D29" s="4">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
-        <v>143000</v>
+      <c r="A30" s="6">
+        <v>14003000</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D30" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="4">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D31" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D32" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="4">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="D33" s="4">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
-        <v>162000</v>
+      <c r="A34" s="6">
+        <v>16002000</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>4</v>
@@ -3546,48 +4419,48 @@
         <v>100</v>
       </c>
       <c r="D34" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="7"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D35" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D36" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="7"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="4">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="D37" s="4">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="7">
-        <v>181000</v>
+      <c r="A38" s="6">
+        <v>18001000</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>4</v>
@@ -3596,692 +4469,93 @@
         <v>200</v>
       </c>
       <c r="D38" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="7"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="4">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D39" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="7"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="4">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D40" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="7"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="4">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="D41" s="4">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="7">
-        <v>200000</v>
+      <c r="A42" s="6">
+        <v>200000000</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D42" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="7"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D43" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="7"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D44" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="7"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="4">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="D45" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
-  <sheetViews>
-    <sheetView topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F44:F45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
-        <v>10000</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3">
-        <v>6300</v>
-      </c>
-      <c r="D2" s="4">
-        <v>5001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D3" s="4">
-        <v>5002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D4" s="4">
-        <v>5002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3">
-        <v>300</v>
-      </c>
-      <c r="D5" s="4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>29000</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3">
-        <v>19300</v>
-      </c>
-      <c r="D6" s="4">
-        <v>14501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
-        <v>14600</v>
-      </c>
-      <c r="D7" s="4">
-        <v>14502</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3">
-        <v>17500</v>
-      </c>
-      <c r="D8" s="4">
-        <v>14502</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3">
-        <v>200</v>
-      </c>
-      <c r="D9" s="4">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
-        <v>48000</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3">
-        <v>30500</v>
-      </c>
-      <c r="D10" s="4">
-        <v>24001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3">
-        <v>26500</v>
-      </c>
-      <c r="D11" s="4">
-        <v>24002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3">
-        <v>23400</v>
-      </c>
-      <c r="D12" s="4">
-        <v>24002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3">
-        <v>200</v>
-      </c>
-      <c r="D13" s="4">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
-        <v>67000</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="3">
-        <v>41100</v>
-      </c>
-      <c r="D14" s="4">
-        <v>33501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3">
-        <v>33000</v>
-      </c>
-      <c r="D15" s="4">
-        <v>33502</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="3">
-        <v>32600</v>
-      </c>
-      <c r="D16" s="4">
-        <v>33502</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3">
-        <v>200</v>
-      </c>
-      <c r="D17" s="4">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
-        <v>86000</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="3">
-        <v>52600</v>
-      </c>
-      <c r="D18" s="4">
-        <v>43001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
-      <c r="B19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3">
-        <v>42400</v>
-      </c>
-      <c r="D19" s="4">
-        <v>43002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
-      <c r="B20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="3">
-        <v>42500</v>
-      </c>
-      <c r="D20" s="4">
-        <v>43002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-      <c r="B21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3">
-        <v>300</v>
-      </c>
-      <c r="D21" s="4">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
-        <v>105000</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3">
-        <v>63900</v>
-      </c>
-      <c r="D22" s="4">
-        <v>52501</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
-      <c r="B23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3">
-        <v>56700</v>
-      </c>
-      <c r="D23" s="4">
-        <v>52502</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
-      <c r="B24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="3">
-        <v>51000</v>
-      </c>
-      <c r="D24" s="4">
-        <v>52502</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
-      <c r="B25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3">
-        <v>400</v>
-      </c>
-      <c r="D25" s="4">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
-        <v>124000</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3">
-        <v>76600</v>
-      </c>
-      <c r="D26" s="5">
-        <v>62001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
-      <c r="B27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3">
-        <v>60600</v>
-      </c>
-      <c r="D27" s="5">
-        <v>62002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
-      <c r="B28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="3">
-        <v>86100</v>
-      </c>
-      <c r="D28" s="5">
-        <v>62002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="B29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="3">
-        <v>700</v>
-      </c>
-      <c r="D29" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
-        <v>143000</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="3">
-        <v>88800</v>
-      </c>
-      <c r="D30" s="5">
-        <v>71501</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
-      <c r="B31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="3">
-        <v>70700</v>
-      </c>
-      <c r="D31" s="5">
-        <v>71502</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7"/>
-      <c r="B32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="3">
-        <v>70700</v>
-      </c>
-      <c r="D32" s="5">
-        <v>71502</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7"/>
-      <c r="B33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="3">
-        <v>200</v>
-      </c>
-      <c r="D33" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
-        <v>162000</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="3">
-        <v>99900</v>
-      </c>
-      <c r="D34" s="5">
-        <v>81001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="7"/>
-      <c r="B35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="3">
-        <v>84600</v>
-      </c>
-      <c r="D35" s="5">
-        <v>81002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
-      <c r="B36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="3">
-        <v>78600</v>
-      </c>
-      <c r="D36" s="5">
-        <v>81002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="7"/>
-      <c r="B37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="3">
-        <v>200</v>
-      </c>
-      <c r="D37" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="7">
-        <v>181000</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="3">
-        <v>112100</v>
-      </c>
-      <c r="D38" s="5">
-        <v>90501</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="7"/>
-      <c r="B39" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="3">
-        <v>89300</v>
-      </c>
-      <c r="D39" s="5">
-        <v>90502</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="7"/>
-      <c r="B40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="3">
-        <v>117700</v>
-      </c>
-      <c r="D40" s="5">
-        <v>90502</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="7"/>
-      <c r="B41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="3">
-        <v>300</v>
-      </c>
-      <c r="D41" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="7">
-        <v>200000</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="3">
-        <v>126000</v>
-      </c>
-      <c r="D42" s="5">
-        <v>100001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="7"/>
-      <c r="B43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="3">
-        <v>108200</v>
-      </c>
-      <c r="D43" s="5">
-        <v>100002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="7"/>
-      <c r="B44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="3">
-        <v>156100</v>
-      </c>
-      <c r="D44" s="5">
-        <v>100002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="7"/>
-      <c r="B45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="3">
-        <v>200</v>
-      </c>
-      <c r="D45" s="5">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -4300,6 +4574,605 @@
     <mergeCell ref="A42:A45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>10000</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>8900</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>7800</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>8600</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>200</v>
+      </c>
+      <c r="D5" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>2009000</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2022800</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2009002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1599100</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1004502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1612500</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1004502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>600</v>
+      </c>
+      <c r="D9" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>4008000</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3907100</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4008002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3280600</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2004002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3293600</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2004002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3">
+        <v>800</v>
+      </c>
+      <c r="D13" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>6007000</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6015600</v>
+      </c>
+      <c r="D14" s="4">
+        <v>6007002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6286000</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3003502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4967800</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3003502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>8006000</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>7784800</v>
+      </c>
+      <c r="D18" s="4">
+        <v>8006002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6"/>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6463300</v>
+      </c>
+      <c r="D19" s="4">
+        <v>4003002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6"/>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6576700</v>
+      </c>
+      <c r="D20" s="4">
+        <v>4003002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6"/>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D21" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>10005000</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3">
+        <v>9518800</v>
+      </c>
+      <c r="D22" s="4">
+        <v>10005002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6"/>
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>7883100</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5002502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6"/>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3">
+        <v>8056100</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5002502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6"/>
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D25" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>12004000</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>11647000</v>
+      </c>
+      <c r="D26" s="4">
+        <v>12004002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6"/>
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>9837900</v>
+      </c>
+      <c r="D27" s="4">
+        <v>6002002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3">
+        <v>9659800</v>
+      </c>
+      <c r="D28" s="4">
+        <v>6002002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6"/>
+      <c r="B29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D29" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>14003000</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3">
+        <v>13629300</v>
+      </c>
+      <c r="D30" s="4">
+        <v>14003002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="6"/>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3">
+        <v>11523600</v>
+      </c>
+      <c r="D31" s="4">
+        <v>7001502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="6"/>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3">
+        <v>11365000</v>
+      </c>
+      <c r="D32" s="4">
+        <v>7001502</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="6"/>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D33" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
+        <v>16002000</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3">
+        <v>15262800</v>
+      </c>
+      <c r="D34" s="4">
+        <v>16002002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="6"/>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3">
+        <v>12736700</v>
+      </c>
+      <c r="D35" s="4">
+        <v>8001002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="6"/>
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3">
+        <v>13170400</v>
+      </c>
+      <c r="D36" s="4">
+        <v>8001002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="6"/>
+      <c r="B37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D37" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
+        <v>18001000</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3">
+        <v>17269200</v>
+      </c>
+      <c r="D38" s="4">
+        <v>18001002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="6"/>
+      <c r="B39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3">
+        <v>14414300</v>
+      </c>
+      <c r="D39" s="4">
+        <v>9000502</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="6"/>
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3">
+        <v>14514700</v>
+      </c>
+      <c r="D40" s="4">
+        <v>9000502</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="6"/>
+      <c r="B41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D41" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
+        <v>200000000</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="3">
+        <v>20067400</v>
+      </c>
+      <c r="D42" s="4">
+        <v>20000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="6"/>
+      <c r="B43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="3">
+        <v>16233500</v>
+      </c>
+      <c r="D43" s="4">
+        <v>10000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="6"/>
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3">
+        <v>17148600</v>
+      </c>
+      <c r="D44" s="4">
+        <v>10000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="6"/>
+      <c r="B45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="D45" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4309,8 +5182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4322,7 +5195,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4336,553 +5209,1153 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>10000</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3">
-        <v>34700</v>
+        <v>18900</v>
       </c>
       <c r="D2" s="4">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3">
-        <v>15700</v>
+        <v>16700</v>
       </c>
       <c r="D3" s="4">
         <v>10001</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3">
-        <v>16000</v>
+        <v>16600</v>
       </c>
       <c r="D4" s="4">
         <v>10001</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D5" s="4">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>29000</v>
+      <c r="A6" s="6">
+        <v>2009000</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3">
-        <v>55900</v>
+        <v>3878300</v>
       </c>
       <c r="D6" s="4">
-        <v>29000</v>
+        <v>4018000</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3">
-        <v>45800</v>
+        <v>3242500</v>
       </c>
       <c r="D7" s="4">
-        <v>29001</v>
+        <v>2009001</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="3">
-        <v>44500</v>
+        <v>3292700</v>
       </c>
       <c r="D8" s="4">
-        <v>29001</v>
+        <v>2009001</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D9" s="4">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
-        <v>48000</v>
+      <c r="A10" s="6">
+        <v>4008000</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="3">
-        <v>86100</v>
+        <v>7822300</v>
       </c>
       <c r="D10" s="4">
-        <v>48000</v>
+        <v>8016000</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="3">
-        <v>73400</v>
+        <v>6482200</v>
       </c>
       <c r="D11" s="4">
-        <v>48001</v>
+        <v>4008001</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="3">
-        <v>74100</v>
+        <v>6681200</v>
       </c>
       <c r="D12" s="4">
-        <v>48001</v>
+        <v>4008001</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D13" s="4">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
-        <v>67000</v>
+      <c r="A14" s="6">
+        <v>6007000</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3">
-        <v>121800</v>
+        <v>12043600</v>
       </c>
       <c r="D14" s="4">
-        <v>67000</v>
+        <v>12014000</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="3">
-        <v>102400</v>
+        <v>10028000</v>
       </c>
       <c r="D15" s="4">
-        <v>67001</v>
+        <v>6007001</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="3">
-        <v>103800</v>
+        <v>10065300</v>
       </c>
       <c r="D16" s="4">
-        <v>67001</v>
+        <v>6007001</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="3">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="D17" s="4">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
-        <v>86000</v>
+      <c r="A18" s="6">
+        <v>8006000</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="3">
-        <v>153900</v>
+        <v>15617800</v>
       </c>
       <c r="D18" s="4">
-        <v>86000</v>
+        <v>16012000</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="3">
-        <v>134100</v>
+        <v>13007000</v>
       </c>
       <c r="D19" s="4">
-        <v>86001</v>
+        <v>8006001</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="3">
-        <v>143900</v>
+        <v>12854000</v>
       </c>
       <c r="D20" s="4">
-        <v>86001</v>
+        <v>8006001</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="D21" s="4">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
-        <v>105000</v>
+      <c r="A22" s="6">
+        <v>10005000</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="3">
-        <v>208200</v>
+        <v>19124300</v>
       </c>
       <c r="D22" s="4">
-        <v>105000</v>
+        <v>20010000</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="3">
-        <v>176900</v>
+        <v>15970200</v>
       </c>
       <c r="D23" s="4">
-        <v>105001</v>
+        <v>10005001</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3">
-        <v>166400</v>
+        <v>16566600</v>
       </c>
       <c r="D24" s="4">
-        <v>105001</v>
+        <v>10005001</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="D25" s="4">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
-        <v>124000</v>
+      <c r="A26" s="6">
+        <v>12004000</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>258400</v>
+        <v>23077100</v>
       </c>
       <c r="D26" s="4">
-        <v>124000</v>
+        <v>24008000</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>283900</v>
+        <v>20088000</v>
       </c>
       <c r="D27" s="4">
-        <v>124001</v>
+        <v>12004001</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="3">
-        <v>196500</v>
+        <v>19743500</v>
       </c>
       <c r="D28" s="4">
-        <v>124001</v>
+        <v>12004001</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="D29" s="4">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
-        <v>143000</v>
+      <c r="A30" s="6">
+        <v>14003000</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="3">
-        <v>270700</v>
+        <v>26969000</v>
       </c>
       <c r="D30" s="4">
-        <v>143000</v>
+        <v>28006000</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="3">
-        <v>236000</v>
+        <v>22444500</v>
       </c>
       <c r="D31" s="4">
-        <v>143001</v>
+        <v>14003001</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="3">
-        <v>226200</v>
+        <v>22966900</v>
       </c>
       <c r="D32" s="4">
-        <v>143001</v>
+        <v>14003001</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="D33" s="4">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
-        <v>162000</v>
+      <c r="A34" s="6">
+        <v>16002000</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="3">
-        <v>314100</v>
+        <v>30798800</v>
       </c>
       <c r="D34" s="4">
-        <v>162000</v>
+        <v>32004000</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="7"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="3">
-        <v>276900</v>
+        <v>28298600</v>
       </c>
       <c r="D35" s="4">
-        <v>162001</v>
+        <v>16002001</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="3">
-        <v>258200</v>
+        <v>26391400</v>
       </c>
       <c r="D36" s="4">
-        <v>162001</v>
+        <v>16002001</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="7"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="D37" s="4">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="7">
-        <v>181000</v>
+      <c r="A38" s="6">
+        <v>18001000</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="3">
-        <v>427600</v>
+        <v>34883800</v>
       </c>
       <c r="D38" s="4">
-        <v>181000</v>
+        <v>36002000</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="7"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="3">
-        <v>292600</v>
+        <v>29282600</v>
       </c>
       <c r="D39" s="4">
-        <v>181001</v>
+        <v>18001001</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="7"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="3">
-        <v>284900</v>
+        <v>29536400</v>
       </c>
       <c r="D40" s="4">
-        <v>181001</v>
+        <v>18001001</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="7"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="D41" s="4">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="7">
-        <v>200000</v>
+      <c r="A42" s="6">
+        <v>200000000</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="3">
-        <v>388800</v>
+        <v>39220700</v>
       </c>
       <c r="D42" s="4">
-        <v>200000</v>
+        <v>40000000</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="7"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="3">
-        <v>327100</v>
+        <v>32636800</v>
       </c>
       <c r="D43" s="4">
-        <v>200001</v>
+        <v>20000001</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="7"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="3">
-        <v>316700</v>
+        <v>36858200</v>
       </c>
       <c r="D44" s="4">
-        <v>200001</v>
+        <v>20000001</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="7"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="3">
+        <v>800</v>
+      </c>
+      <c r="D45" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D45" sqref="A1:D45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>10000</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>17800</v>
+      </c>
+      <c r="D2" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>15300</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
         <v>300</v>
       </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>500</v>
+      </c>
+      <c r="D5" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>2009000</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3865700</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4018001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3289400</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2009001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>100</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>700</v>
+      </c>
+      <c r="D9" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>4008000</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>11067000</v>
+      </c>
+      <c r="D10" s="4">
+        <v>8016001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6609700</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4008001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>200</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3">
+        <v>700</v>
+      </c>
+      <c r="D13" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>6007000</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3">
+        <v>11674500</v>
+      </c>
+      <c r="D14" s="4">
+        <v>12014001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>9872200</v>
+      </c>
+      <c r="D15" s="4">
+        <v>6007001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
+        <v>200</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3">
+        <v>800</v>
+      </c>
+      <c r="D17" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>8006000</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>15488700</v>
+      </c>
+      <c r="D18" s="4">
+        <v>16012001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6"/>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>12945600</v>
+      </c>
+      <c r="D19" s="4">
+        <v>8006001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6"/>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>200</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6"/>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3">
+        <v>800</v>
+      </c>
+      <c r="D21" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>10005000</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3">
+        <v>19450600</v>
+      </c>
+      <c r="D22" s="4">
+        <v>20010001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6"/>
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>16238400</v>
+      </c>
+      <c r="D23" s="4">
+        <v>10005001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6"/>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3">
+        <v>200</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6"/>
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D25" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>12004000</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>23385200</v>
+      </c>
+      <c r="D26" s="4">
+        <v>24008001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6"/>
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>19896900</v>
+      </c>
+      <c r="D27" s="4">
+        <v>12004001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3">
+        <v>200</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6"/>
+      <c r="B29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3">
+        <v>900</v>
+      </c>
+      <c r="D29" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>14003000</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3">
+        <v>28527700</v>
+      </c>
+      <c r="D30" s="4">
+        <v>28006001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="6"/>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3">
+        <v>28154800</v>
+      </c>
+      <c r="D31" s="4">
+        <v>14003001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="6"/>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3">
+        <v>300</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="6"/>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="D33" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
+        <v>16002000</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3">
+        <v>31014500</v>
+      </c>
+      <c r="D34" s="4">
+        <v>32004001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="6"/>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3">
+        <v>25910200</v>
+      </c>
+      <c r="D35" s="4">
+        <v>16002001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="6"/>
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3">
+        <v>300</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="6"/>
+      <c r="B37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1800</v>
+      </c>
+      <c r="D37" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
+        <v>18001000</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3">
+        <v>34845900</v>
+      </c>
+      <c r="D38" s="4">
+        <v>36002001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="6"/>
+      <c r="B39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3">
+        <v>29827900</v>
+      </c>
+      <c r="D39" s="4">
+        <v>18001001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="6"/>
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3">
+        <v>200</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="6"/>
+      <c r="B41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="3">
+        <v>900</v>
+      </c>
+      <c r="D41" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
+        <v>200000000</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="3">
+        <v>43810300</v>
+      </c>
+      <c r="D42" s="4">
+        <v>40000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="6"/>
+      <c r="B43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="3">
+        <v>32580800</v>
+      </c>
+      <c r="D43" s="4">
+        <v>20000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="6"/>
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3">
+        <v>200</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="6"/>
+      <c r="B45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1000</v>
+      </c>
       <c r="D45" s="4">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
